--- a/pred_ohlcv/54_21/2019-10-16 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 MXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-994075.7429000002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2054641.9516</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2144904.7414</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2119326.5236</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1971384.5236</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1874825.2523</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1871818.2523</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1871828.2523</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1803806.2727</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1572448.1469</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1572448.1469</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1495463.1469</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1375463.1469</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1614075.9394</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1594682.9394</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1545021.9394</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1545021.9394</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1545021.9394</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1783753.8129</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1889678.5508</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1889678.5508</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1809678.5508</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1966139.0507</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1833085.7148</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1951073.0233</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1951103.0233</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1950508.0233</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1887136.0233</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2302568.8397</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2425233.4632</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2436042.6262</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2436042.6262</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2436042.6262</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2396597.4466</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2393036.5631</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2393036.5631</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2935676.073100001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2935676.073100001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2844500.567100001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2862214.567100001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2862214.567100001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2969303.546300001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3843305.906900001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3934488.906900001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4074138.013900001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4318566.438800001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5003327.061900002</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5116191.061900002</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5281239.461100002</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 MXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-994075.7429000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2054641.9516</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1955613.7414</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2119326.5236</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1938175.5236</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1971384.5236</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2011384.5236</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1874825.2523</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1871818.2523</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1803806.2727</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1576999.1469</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1572448.1469</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1495463.1469</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1375463.1469</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1494075.9394</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1614075.9394</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1514075.9394</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1545021.9394</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1545021.9394</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1545021.9394</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1783753.8129</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1889678.5508</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1809678.5508</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1809678.5508</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1966139.0507</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1906139.0507</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1906239.0507</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1852104.0462</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1833085.7148</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1951073.0233</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1951103.0233</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1950508.0233</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1887136.0233</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1762819.0233</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1762839.0233</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1762828.0233</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1646318.2201</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1646318.2201</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1646318.2201</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1646318.2201</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1646318.2201</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2047331.6755</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2267331.6755</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2302518.8397</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-2302568.8397</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2425233.4632</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-2425053.4632</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2436042.6262</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2436042.6262</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2396597.4466</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2393036.5631</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2393036.5631</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2935676.073100001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2935676.073100001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2844500.567100001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2862214.567100001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2862214.567100001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2969303.546300001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2969303.546300001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2969303.546300001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2969303.546300001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2928303.546300001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3130099.906900001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3876851.906900001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3843305.906900001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3843305.906900001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3843305.906900001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3834488.906900001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3934488.906900001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3934488.906900001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4074138.013900001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4054138.013900001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4014619.013900001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3999822.044300001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3959822.044300001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4318566.438800001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5281239.461100002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
